--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3079.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3079.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.106917074996057</v>
+        <v>1.275184154510498</v>
       </c>
       <c r="B1">
-        <v>2.377585190932216</v>
+        <v>2.13282299041748</v>
       </c>
       <c r="C1">
-        <v>4.575338217179031</v>
+        <v>4.73020076751709</v>
       </c>
       <c r="D1">
-        <v>3.359376854246968</v>
+        <v>3.31791353225708</v>
       </c>
       <c r="E1">
-        <v>1.29015362481852</v>
+        <v>1.375092148780823</v>
       </c>
     </row>
   </sheetData>
